--- a/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,91</t>
+          <t>0,44; 4,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,62</t>
+          <t>0,31; 2,67</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,51</t>
+          <t>0,47; 2,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,17</t>
+          <t>0,51; 2,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,86</t>
+          <t>0,64; 1,85</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,21</t>
+          <t>0,9; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,29</t>
+          <t>1,11; 3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,75</t>
+          <t>1,2; 2,76</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,78</t>
+          <t>2,1; 5,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,04</t>
+          <t>0,83; 3,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,73</t>
+          <t>1,63; 3,6</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,66</t>
+          <t>1,51; 3,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,49</t>
+          <t>2,16; 4,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,66</t>
+          <t>2,18; 3,8</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,91</t>
+          <t>1,69; 2,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,62</t>
+          <t>1,61; 2,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,55</t>
+          <t>1,75; 2,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,41</t>
+          <t>0,34; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,67</t>
+          <t>0,25; 2,37</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,42</t>
+          <t>0,5; 2,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,01</t>
+          <t>0,56; 2,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,85</t>
+          <t>0,68; 1,95</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,19</t>
+          <t>0,9; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,26</t>
+          <t>1,05; 3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,76</t>
+          <t>1,22; 2,66</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,75</t>
+          <t>2,2; 5,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,07</t>
+          <t>0,92; 3,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,6</t>
+          <t>1,66; 3,78</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,51</t>
+          <t>1,49; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,5</t>
+          <t>2,22; 4,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,8</t>
+          <t>2,17; 3,68</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,88</t>
+          <t>1,66; 2,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,64</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,54</t>
+          <t>1,74; 2,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,4; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,91</t>
+          <t>0,69; 2,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,37</t>
+          <t>0,7; 1,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,56</t>
+          <t>0,65; 2,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,09</t>
+          <t>1,07; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,95</t>
+          <t>1,03; 2,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,1</t>
+          <t>2,13; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,08</t>
+          <t>0,75; 3,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,66</t>
+          <t>1,45; 3,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,85</t>
+          <t>1,49; 3,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,05</t>
+          <t>2,09; 4,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,78</t>
+          <t>2,06; 3,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,54</t>
+          <t>1,5; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,38</t>
+          <t>1,54; 2,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,68</t>
+          <t>1,64; 2,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 2,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 2,67</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +51,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +493,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,85 +507,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,15 +543,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +557,15 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>1,12%</t>
         </is>
@@ -724,62 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,43; 2,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,64; 2,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 2,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 2,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 1,82</t>
+          <t>0,67; 1,77</t>
         </is>
       </c>
     </row>
@@ -796,60 +607,15 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>1,69%</t>
         </is>
@@ -864,62 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,68; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,14; 3,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 2,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 3,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 2,58</t>
+          <t>1,0; 2,58</t>
         </is>
       </c>
     </row>
@@ -936,60 +657,15 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>2,4%</t>
         </is>
@@ -1004,62 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,97; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,72; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 5,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 3,67</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 3,82</t>
+          <t>1,35; 3,66</t>
         </is>
       </c>
     </row>
@@ -1076,60 +707,15 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>2,69%</t>
         </is>
@@ -1144,62 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,44; 3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,03; 4,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 3,54</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 4,28</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 3,56</t>
+          <t>1,99; 3,53</t>
         </is>
       </c>
     </row>
@@ -1216,60 +757,15 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>2,03%</t>
         </is>
@@ -1284,62 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,49; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,5; 2,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 2,76</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 2,66</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 2,5</t>
+          <t>1,62; 2,48</t>
         </is>
       </c>
     </row>
@@ -1351,16 +802,471 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con retrasos en pagos no resueltos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6523</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8694</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2762; 13158</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4609; 15220</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9161; 24109</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18805</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17465</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8148; 35900</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10896; 30790</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21596; 55483</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24179</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15204</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39383</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13916; 39425</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6734; 35995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22186; 59974</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21645</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32837</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54482</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13361; 32151</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22275; 46058</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40295; 71315</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71153</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>74199</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>145352</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51445; 95715</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55523; 96146</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>116378; 177697</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
